--- a/AgendaTelefonica/BaseDatos.xlsx
+++ b/AgendaTelefonica/BaseDatos.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\AgendaTelefonica\AgendaTelefonica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCE27F2-7B56-479E-9A68-AF8D1044FBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B92FF80-4BAC-4AE8-A4B2-0B2C2A40E052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{0FA324A0-8000-4786-9AE9-1B66E9312685}"/>
+    <workbookView xWindow="-20610" yWindow="-60" windowWidth="20730" windowHeight="11040" tabRatio="453" xr2:uid="{0FA324A0-8000-4786-9AE9-1B66E9312685}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="BD" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Contactos</t>
   </si>
   <si>
-    <t>grupo</t>
-  </si>
-  <si>
-    <t>correo</t>
-  </si>
-  <si>
     <t>segundo_nombre</t>
   </si>
   <si>
@@ -57,17 +51,72 @@
     <t>segundo_apellido</t>
   </si>
   <si>
-    <t>numero(Pueden ser varios)</t>
-  </si>
-  <si>
-    <t>direccion (Puede ser varios)</t>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Amaya</t>
+  </si>
+  <si>
+    <t>Toro</t>
+  </si>
+  <si>
+    <t>indicativo</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
+  <si>
+    <t>Id numero</t>
+  </si>
+  <si>
+    <t>Id direccion</t>
+  </si>
+  <si>
+    <t>+57</t>
+  </si>
+  <si>
+    <t>ID Contacto (FK)</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>diegeogneg</t>
+  </si>
+  <si>
+    <t>Direcciones</t>
+  </si>
+  <si>
+    <t>NumeroTel</t>
+  </si>
+  <si>
+    <t>id_contacto</t>
+  </si>
+  <si>
+    <t>ALTER TABLE IF EXISTS public.contacto
+    ADD PRIMARY KEY (id_contacto);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,16 +124,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -92,20 +197,328 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -116,6 +529,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{346C2223-D78F-4292-9441-5C81B2A327D8}" name="Tabla1" displayName="Tabla1" ref="A3:I11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A3:I11" xr:uid="{E5C3EA3A-3F19-47C1-ABA4-36AE5BFF073E}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{1AA323E8-66BF-4EF4-A0B3-3DB6B42849D8}" name="id_contacto" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{5F77813F-864B-4922-B51E-A7F41029A836}" name="primer_nombre" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{21DF7CA5-645A-4FF5-919E-9A9968988BF4}" name="segundo_nombre" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{B5CBD408-675A-4A03-AB8B-4A1F817369C7}" name="primer_apellido" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{5F3EACFA-AE0B-4673-8DD0-03A32AB175EC}" name="segundo_apellido" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{1050E595-4FCD-42F2-AF71-EC763526CCA8}" name="Grupo" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{F44A207D-A6DC-4373-BFD4-4572470259F2}" name="Id numero" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{C4C6CE8B-139E-4A97-BFFB-235B623CF151}" name="Id direccion" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{FA9DBAAD-94C6-41E4-B078-FD31823FC94E}" name="Correo" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18EB5D33-4DA2-464A-89B9-A3C67B1C7524}" name="Tabla2" displayName="Tabla2" ref="K3:N5" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="K3:N5" xr:uid="{E1AC94C4-2B52-419E-AFC3-060DB70E81AE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4829850E-B5C5-43A3-831C-F7A2D2376F94}" name="ID Contacto (FK)"/>
+    <tableColumn id="4" xr3:uid="{AF8ABE66-BFFD-4B4E-A610-2A9A6CC9CDFB}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{CA1F27BE-4026-4E59-92CD-F66A724948B7}" name="indicativo" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{2502BF42-FD2E-400A-B7AC-B2BE25176148}" name="numero"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D639489-0346-4F8B-8588-B6BD45CC5056}" name="Tabla3" displayName="Tabla3" ref="K9:M11" totalsRowShown="0">
+  <autoFilter ref="K9:M11" xr:uid="{9FBF4722-768B-4B2E-AFDA-828E1309D9FC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E69AAD94-4228-46DC-9066-C2657E944090}" name="ID Contacto (FK)"/>
+    <tableColumn id="3" xr3:uid="{0DD90AEB-B74F-4C21-AE6C-AB849332BCC1}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{70B38B25-0A00-494D-A7B7-D56C1F0E1924}" name="direccion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,75 +871,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE17E673-AC7B-4592-A305-AD8400E95EA4}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="12" width="26.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4">
+        <v>3214561278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>2</v>
       </c>
+      <c r="M5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5">
+        <v>3225678920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G2"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K1:N2"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A12:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CBase De Datos</oddHeader>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="M4:M5" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>